--- a/races.xlsx
+++ b/races.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Человек</t>
   </si>
@@ -80,6 +79,30 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>metall</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>microelectronics</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>chemical</t>
   </si>
 </sst>
 </file>
@@ -419,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +454,7 @@
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -441,8 +464,32 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,8 +500,36 @@
         <f>"INSERT INTO `race`(`name`) VALUES ('"&amp;B2&amp;"');"</f>
         <v>INSERT INTO `race`(`name`) VALUES ('Человек');</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D2:K2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,8 +540,36 @@
         <f t="shared" ref="C3:C19" si="0">"INSERT INTO `race`(`name`) VALUES ('"&amp;B3&amp;"');"</f>
         <v>INSERT INTO `race`(`name`) VALUES ('Генно-модифицированый человек');</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L19" si="1">SUM(D3:K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,8 +580,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Жгучая Африка');</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -489,8 +620,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Загадочный восток');</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -501,8 +660,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Краснолицые');</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -513,8 +700,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Эльф');</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -525,8 +740,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Орк');</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -537,8 +780,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Гоблин');</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -549,8 +820,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Дворф');</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -561,8 +860,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Вампир');</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -573,8 +900,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Фея');</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -585,8 +940,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Тролль');</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -597,8 +980,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Медуза-горгона');</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -609,8 +1020,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Инопланетянин');</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -621,8 +1060,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Оборотень');</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -633,8 +1100,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Бес');</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -645,8 +1140,36 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Минотавр');</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -656,6 +1179,68 @@
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `race`(`name`) VALUES ('Гарпия');</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>SUM(D2:D20)</f>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:K21" si="2">SUM(E2:E20)</f>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/races.xlsx
+++ b/races.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Человек</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>chemical</t>
+  </si>
+  <si>
+    <t>Хоббит</t>
+  </si>
+  <si>
+    <t>Полуорк</t>
+  </si>
+  <si>
+    <t>Дроу</t>
+  </si>
+  <si>
+    <t>Ангел</t>
   </si>
 </sst>
 </file>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C19" si="0">"INSERT INTO `race`(`name`) VALUES ('"&amp;B3&amp;"');"</f>
+        <f t="shared" ref="C3:C23" si="0">"INSERT INTO `race`(`name`) VALUES ('"&amp;B3&amp;"');"</f>
         <v>INSERT INTO `race`(`name`) VALUES ('Генно-модифицированый человек');</v>
       </c>
       <c r="D3">
@@ -565,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L19" si="1">SUM(D3:K3)</f>
+        <f t="shared" ref="L3:L23" si="1">SUM(D3:K3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1209,38 +1221,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race`(`name`) VALUES ('Хоббит');</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race`(`name`) VALUES ('Полуорк');</v>
+      </c>
       <c r="D21">
-        <f>SUM(D2:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race`(`name`) VALUES ('Дроу');</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race`(`name`) VALUES ('Ангел');</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>SUM(D2:D24)</f>
         <v>2</v>
       </c>
-      <c r="E21">
-        <f t="shared" ref="E21:K21" si="2">SUM(E2:E20)</f>
-        <v>2</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <f t="shared" ref="E25:K25" si="2">SUM(E2:E24)</f>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="K25">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
